--- a/Define/Relatório sobre custos.xlsx
+++ b/Define/Relatório sobre custos.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\pos_temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruhan\Documents\TCC\Define\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Analise detalhada dos custos" sheetId="2" r:id="rId2"/>
+    <sheet name="Dados Gerais" sheetId="1" r:id="rId1"/>
+    <sheet name="DETALHAMENTO DOS ITENS" sheetId="3" r:id="rId2"/>
+    <sheet name="Analise detalhada dos custos" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>CUSTO MÉDIO TOTAL ANUAL</t>
   </si>
@@ -123,12 +124,6 @@
     <t>LAMPADA</t>
   </si>
   <si>
-    <t>CUSTO TOTAL DO SERVIDOR</t>
-  </si>
-  <si>
-    <t>CUSTO / PADs</t>
-  </si>
-  <si>
     <t>VOLUME DE PADS</t>
   </si>
   <si>
@@ -145,6 +140,91 @@
   <si>
     <t>CUSTO MEDIO DIARIO 
 1 SERVIDOR SECGS</t>
+  </si>
+  <si>
+    <t>ECONOMIA ANUAL POR SERVIDOR $( GANHO EM DIA POR PAD ANUAL X  CUSTO DE 1 DIA DO SERVIDOR)</t>
+  </si>
+  <si>
+    <t>ECONOMIA ANUAL PARA SECRETARIA(SECGS) $( GANHO EM DIA POR PAD ANUAL X  CUSTO DE 42 SERVIDORES ANUAL)</t>
+  </si>
+  <si>
+    <t>MÉDIA VOLUME DE PADS (2014 A 2016)</t>
+  </si>
+  <si>
+    <t>CUSTO MÉDIO TOTAL DO SERVIDOR</t>
+  </si>
+  <si>
+    <t>CUSTO PAD (VOLUME PADS X CUSTO MÉDIO TOTAL DO SERVIDOR)</t>
+  </si>
+  <si>
+    <t>GANHO EM DIAS ANUAL
+(MÉDIA VOLUME PAD ANUAL X GANHO DE DIAS POR PAD(3 DIAS))</t>
+  </si>
+  <si>
+    <t>META (GANHO DE 3 DIAS POR PAD)(CUSTO MÉDIO DIARIO X 3 DIAS GANHOS POR PAD)</t>
+  </si>
+  <si>
+    <t>RELATÓRIO DE CUSTOS FINANCEIROS COM BASE NUM VOLUME DE PADS PROCESSADOS PELA SECGS MÉDIO DE 33 AO ANO</t>
+  </si>
+  <si>
+    <t>MÉDIA  DE DIAS EM TRÂMITE DA SECGS ATUAL</t>
+  </si>
+  <si>
+    <t>18 DIAS</t>
+  </si>
+  <si>
+    <t>META DE REDUÇÃO GERAL</t>
+  </si>
+  <si>
+    <t>MÉDIA DE DIAS EM TRÂMITE DA SECGS FUTURA</t>
+  </si>
+  <si>
+    <t>15 DIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJETO LEAN SIX SIGMA - ÁREA SECGS </t>
+  </si>
+  <si>
+    <t>GANHO EM DIAS POR PAD</t>
+  </si>
+  <si>
+    <t>3 DIAS</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>TOMADA DE PREÇOS</t>
+  </si>
+  <si>
+    <t>PREGÃO</t>
+  </si>
+  <si>
+    <t>LEILÃO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>* DADOS FORNECIDOS PELA LUIZA TAKAHASI NO DIA 16/05</t>
+  </si>
+  <si>
+    <t>MÉDIA VOLUME PADS ULIMOS 3 ANOS</t>
+  </si>
+  <si>
+    <t>DETALHAMENTO DOS CUSTOS ANUAIS , MENSAIS E DIÁRIOS RESPECTIVAMENTE</t>
+  </si>
+  <si>
+    <t>VARIAVEL DE CALCULO</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>NÚMERO DE SERVIDORES DA ÁREA DA SECGS</t>
   </si>
 </sst>
 </file>
@@ -152,11 +232,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-[$R$-416]* #,##0.00_-;\-[$R$-416]* #,##0.00_-;_-[$R$-416]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]* #,##0.00_-;\-[$R$-416]* #,##0.00_-;_-[$R$-416]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,16 +305,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -352,7 +446,38 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -360,75 +485,11 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -436,9 +497,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -446,116 +507,143 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1463,9 +1551,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1503,7 +1591,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1575,7 +1663,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1766,12 +1854,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1843,12 +1931,12 @@
       <c r="D6" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="14" t="s">
         <v>27</v>
       </c>
@@ -1857,11 +1945,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="9">
         <f>2846.37/42</f>
         <v>67.770714285714277</v>
@@ -1872,11 +1960,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="9">
         <f>34.7/42</f>
         <v>0.82619047619047625</v>
@@ -1887,11 +1975,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="1">
         <f>(9492.75/431)</f>
         <v>22.024941995359629</v>
@@ -1902,11 +1990,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="15">
         <f>SUM(D9:D11)</f>
         <v>90.621846757264379</v>
@@ -1917,50 +2005,50 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="13">
         <f>B3+D12</f>
         <v>14590.621846757263</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="11">
         <f>D3*3</f>
         <v>1450</v>
@@ -1970,11 +2058,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="8">
         <f>D3+E12</f>
         <v>486.35406155857544</v>
@@ -1985,55 +2073,55 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22">
         <f>100/12</f>
         <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23">
         <f>D22/30</f>
         <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="8">
         <f>D22*D19</f>
         <v>121588.51538964387</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="8">
         <f>D21*D23</f>
         <v>135.09835043293762</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="8">
         <f>D25/24</f>
         <v>5.6290979347057339</v>
@@ -2041,6 +2129,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="A1:D1"/>
@@ -2051,15 +2148,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2070,165 +2158,420 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="17" customWidth="1"/>
-    <col min="6" max="7" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="23" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="48"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5"/>
+      <c r="H5" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>33</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="48"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>51</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>67</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56">
+        <f>ROUND(AVERAGE(33,51,67),0)</f>
+        <v>50</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="24">
-        <f>D3*12</f>
+      <c r="C15" s="43">
+        <f>D15*12</f>
         <v>174000</v>
       </c>
-      <c r="D3" s="30">
-        <f>Plan1!B3</f>
+      <c r="D15" s="44">
+        <f>'Dados Gerais'!B3</f>
         <v>14500</v>
       </c>
-      <c r="E3" s="27">
-        <f>D3/30</f>
+      <c r="E15" s="43">
+        <f>D15/30</f>
         <v>483.33333333333331</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="I15" s="59"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="30">
-        <f>Plan1!D9</f>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44">
+        <f>'Dados Gerais'!D9</f>
         <v>67.770714285714277</v>
       </c>
-      <c r="E4" s="27">
-        <f t="shared" ref="E4:E6" si="0">D4/30</f>
+      <c r="E16" s="43">
+        <f>D16/30</f>
         <v>2.2590238095238093</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="19" t="s">
+      <c r="I16" s="59"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="30">
-        <f>Plan1!D10</f>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44">
+        <f>'Dados Gerais'!D10</f>
         <v>0.82619047619047625</v>
       </c>
-      <c r="E5" s="27">
-        <f t="shared" si="0"/>
+      <c r="E17" s="43">
+        <f t="shared" ref="E17:E18" si="0">D17/30</f>
         <v>2.7539682539682541E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="19" t="s">
+      <c r="I17" s="60"/>
+    </row>
+    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="30">
-        <f>Plan1!D11</f>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44">
+        <f>'Dados Gerais'!D11</f>
         <v>22.024941995359629</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E18" s="43">
         <f t="shared" si="0"/>
         <v>0.73416473317865427</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="25">
-        <f>SUM(C3:C6)</f>
+      <c r="F18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="41">
+        <f>SUM(C15:C18)</f>
         <v>174000</v>
       </c>
-      <c r="D7" s="31">
-        <f>SUM(D3:D6)</f>
+      <c r="D19" s="42">
+        <f>SUM(D15:D18)</f>
         <v>14590.621846757265</v>
       </c>
-      <c r="E7" s="28">
-        <f>SUM(E3:E6)</f>
+      <c r="E19" s="41">
+        <f>SUM(E15:E18)</f>
         <v>486.35406155857544</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16">
-        <f>D12*D7</f>
-        <v>40124.21007858248</v>
-      </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="16">
-        <v>33</v>
-      </c>
-      <c r="D12" s="16">
-        <f>C12/12</f>
-        <v>2.75</v>
-      </c>
-      <c r="E12" s="16">
-        <f>D12/30</f>
-        <v>9.166666666666666E-2</v>
-      </c>
+      <c r="F19" s="37">
+        <f>E19*3</f>
+        <v>1459.0621846757263</v>
+      </c>
+      <c r="G19" s="1">
+        <f>C20*3</f>
+        <v>100.56</v>
+      </c>
+      <c r="H19" s="37">
+        <f>E19*G19</f>
+        <v>48907.764430330346</v>
+      </c>
+      <c r="I19" s="37">
+        <f>42*H19</f>
+        <v>2054126.1060738745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="36">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="D20" s="36">
+        <f>C20/12</f>
+        <v>2.7933333333333334</v>
+      </c>
+      <c r="E20" s="36">
+        <f>D20/22</f>
+        <v>0.12696969696969698</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="36">
+        <f>C20*C19</f>
+        <v>5832480.0000000009</v>
+      </c>
+      <c r="D21" s="36">
+        <f>D20*D19</f>
+        <v>40756.470358608633</v>
+      </c>
+      <c r="E21" s="36">
+        <f>E20*E19</f>
+        <v>61.752227816073678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A6"/>
+  <mergeCells count="11">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B11:I13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Define/Relatório sobre custos.xlsx
+++ b/Define/Relatório sobre custos.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>CUSTO MÉDIO TOTAL ANUAL</t>
   </si>
@@ -225,6 +225,30 @@
   </si>
   <si>
     <t>NÚMERO DE SERVIDORES DA ÁREA DA SECGS</t>
+  </si>
+  <si>
+    <t>VALOR DE REMUNERAÇÃO MENSAL MÉDIO ENTRE TODOS OS SERVIDORES DO T.R.E OU SOMENTE DA SECGS?</t>
+  </si>
+  <si>
+    <t>CUSTO MÉDIO ANUAL PARA 1 SERVIDOR</t>
+  </si>
+  <si>
+    <t>VALOR DE REMUNERAÇÃO ANUAL MÉDIO ENTRE TODOS OS SERVIDORES DO T.R.E OU SOMENTE DA SECGS?</t>
+  </si>
+  <si>
+    <t>CUSTO MENSAL  TELEFONE(MÊS BASE: MARÇO 2017)</t>
+  </si>
+  <si>
+    <t>VALOR  DE CUSTO DE TELEFONE NO MÊS DE MARÇO DE 2017 OBTIDO ATRAVES DA DIVISAO DO CUSTO TOTAL DE TELEFONE POR  431 SERVIDORES DO T.R.E(431 X 22,02 =9490,62)</t>
+  </si>
+  <si>
+    <t>VALOR OBTIDO CALCULANDO O CONSUMO MÉDIO DE  8 LÂMPADAS PARA A SALA LIGADAS POR 420 MINUTOS/DIA DIVIDIDOS POR 42 SERVIDORES DA SECGS</t>
+  </si>
+  <si>
+    <t>CUSTO MÉDIO MENSAL LÂMPADAS / TOTAL DE SERVIDORES DA SECGS</t>
+  </si>
+  <si>
+    <t>CUSTO MÉDIO MENSAL DE 1 SERVIDOR T.R.E</t>
   </si>
 </sst>
 </file>
@@ -236,7 +260,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]* #,##0.00_-;\-[$R$-416]* #,##0.00_-;_-[$R$-416]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +337,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -641,6 +677,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1840,7 +1879,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,6 +1890,7 @@
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1973,6 +2013,7 @@
         <f>D10/30</f>
         <v>2.7539682539682541E-2</v>
       </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -2158,40 +2199,270 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="147.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="61"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="61">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="61" t="s">
         <v>64</v>
       </c>
+      <c r="D2" s="61"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="62">
+        <v>14500</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="61"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="62">
+        <v>174000</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="62">
+        <v>22.02</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="61"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="62">
+        <v>0.83</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="61"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2205,8 +2476,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
